--- a/Example/Excel/example.xlsx
+++ b/Example/Excel/example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,67 +66,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,2|3,4|5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcustomtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c4567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未定义解析函数的自定义类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义 key-value pair数组类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#注释行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>someid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isdog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义数组类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>pairarray&lt;int,int&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1|2|3|4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2|3,4|5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|3|4|</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcustomtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a12345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b2345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c4567</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组定义数组类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未定义解析函数的自定义类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认为string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义 key-value pair数组类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#注释行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>someid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testarray</t>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,2,3,4]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1,2},{2,3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +191,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -173,8 +227,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -183,6 +240,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -471,166 +536,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="30.75" customWidth="1"/>
-    <col min="7" max="7" width="30.875" customWidth="1"/>
-    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>99</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>102</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1020</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>103</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1040</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="H8" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>99</v>
-      </c>
-      <c r="B6">
-        <v>1010</v>
-      </c>
-      <c r="C6">
-        <v>0.7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>102</v>
-      </c>
-      <c r="B7">
-        <v>1020</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>103</v>
-      </c>
-      <c r="B8">
-        <v>1040</v>
-      </c>
-      <c r="C8">
-        <v>0.6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Example/Excel/example.xlsx
+++ b/Example/Excel/example.xlsx
@@ -122,6 +122,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>定义数组类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pairarray&lt;int,int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,2,3,4]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1,2},{2,3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>k</t>
     </r>
@@ -136,43 +173,6 @@
       </rPr>
       <t>ey</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义数组类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pairarray&lt;int,int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1,2,3,4]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1,2},{2,3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2,3,4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +539,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
@@ -611,16 +611,17 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -651,10 +652,10 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>15</v>
@@ -677,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -703,7 +704,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
